--- a/Valag.xlsx
+++ b/Valag.xlsx
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.1612021857923497</v>
+        <v>0.1475409836065573</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1428477671177549</v>
+        <v>0.1543997831609249</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -559,19 +559,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.293023423183876</v>
+        <v>1.280408293124317</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09029759715795516</v>
+        <v>0.09038692696809766</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7006613738858027</v>
+        <v>0.6888788179937173</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2993386261141973</v>
+        <v>0.3111211820062827</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1271174714399209</v>
+        <v>0.1344840276786143</v>
       </c>
       <c r="L2" t="n">
         <v>0.5</v>
@@ -582,10 +582,10 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.985327017078611</v>
+        <v>1.971865971247252</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03428181023597719</v>
+        <v>0.03441546931266786</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -593,10 +593,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.985327017078611</v>
+        <v>1.971865971247252</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03428181023597719</v>
+        <v>0.03441546931266786</v>
       </c>
       <c r="S2" t="n">
         <v>0.5</v>
@@ -605,7 +605,7 @@
         <v>0.5</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03428181023597719</v>
+        <v>0.03441546931266786</v>
       </c>
     </row>
     <row r="3">
@@ -621,10 +621,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.1612021857923497</v>
+        <v>0.1475409836065573</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1428477671177549</v>
+        <v>0.1543997831609249</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -632,19 +632,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.293023423183876</v>
+        <v>1.280408293124317</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09029759715795516</v>
+        <v>0.09038692696809766</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2588954982495276</v>
+        <v>0.2475208621243395</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7411045017504725</v>
+        <v>0.7524791378756605</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1039025995927949</v>
+        <v>0.1062314443199876</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.985327017078611</v>
+        <v>1.971865971247252</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03428181023597719</v>
+        <v>0.03441546931266786</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.985327017078611</v>
+        <v>1.971865971247252</v>
       </c>
       <c r="R3" t="n">
-        <v>0.03428181023597719</v>
+        <v>0.03441546931266786</v>
       </c>
       <c r="S3" t="n">
         <v>0.5</v>
@@ -678,7 +678,7 @@
         <v>0.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03428181023597719</v>
+        <v>0.03441546931266786</v>
       </c>
     </row>
     <row r="4">
@@ -694,10 +694,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.293023423183876</v>
+        <v>1.280408293124317</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09029759715795516</v>
+        <v>0.09038692696809766</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -705,19 +705,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.512120153148858</v>
+        <v>2.500118460054325</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08056476862802769</v>
+        <v>0.08063188539030453</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4200816395952174</v>
+        <v>0.410030574159364</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5799183604047826</v>
+        <v>0.5899694258406361</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08465335119477874</v>
+        <v>0.08463175068939552</v>
       </c>
       <c r="L4" t="n">
         <v>2</v>
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.985327017078611</v>
+        <v>1.971865971247252</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03428181023597719</v>
+        <v>0.03441546931266786</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -739,19 +739,19 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>5.859715978135454</v>
+        <v>5.848421132426982</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02790983576774597</v>
+        <v>0.02790068125724793</v>
       </c>
       <c r="S4" t="n">
-        <v>0.996212826572429</v>
+        <v>0.9927425181422711</v>
       </c>
       <c r="T4" t="n">
-        <v>0.003787173427570956</v>
+        <v>0.007257481857728898</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03425767846358994</v>
+        <v>0.0343681883565487</v>
       </c>
     </row>
     <row r="5">
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.512120153148858</v>
+        <v>2.500118460054325</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08056476862802769</v>
+        <v>0.08063188539030453</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -778,19 +778,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.312981000054467</v>
+        <v>4.301795009238987</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07268430237584672</v>
+        <v>0.07274600196334646</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7290852051731489</v>
+        <v>0.7225464580909967</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2709147948268511</v>
+        <v>0.2774535419090033</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07842983373017817</v>
+        <v>0.0784439191024135</v>
       </c>
       <c r="L5" t="n">
         <v>3</v>
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.985327017078611</v>
+        <v>1.971865971247252</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03428181023597719</v>
+        <v>0.03441546931266786</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -812,19 +812,19 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>5.859715978135454</v>
+        <v>5.848421132426982</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02790983576774597</v>
+        <v>0.02790068125724793</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7381076104850841</v>
+        <v>0.7347815299912148</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2618923895149159</v>
+        <v>0.2652184700087852</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03261303861656407</v>
+        <v>0.03268762719217788</v>
       </c>
     </row>
     <row r="6">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.512120153148858</v>
+        <v>2.500118460054325</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08056476862802769</v>
+        <v>0.08063188539030453</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.312981000054467</v>
+        <v>4.301795009238987</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07268430237584672</v>
+        <v>0.07274600196334646</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1737952161002653</v>
+        <v>0.167507874471454</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8262047838997346</v>
+        <v>0.832492125528546</v>
       </c>
       <c r="K6" t="n">
-        <v>0.07405388971111536</v>
+        <v>0.07406694953452587</v>
       </c>
       <c r="L6" t="n">
         <v>4</v>
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.985327017078611</v>
+        <v>1.971865971247252</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03428181023597719</v>
+        <v>0.03441546931266786</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -885,19 +885,19 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>5.859715978135454</v>
+        <v>5.848421132426982</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02790983576774597</v>
+        <v>0.02790068125724793</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4800023943977393</v>
+        <v>0.4768205418401587</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5199976056022607</v>
+        <v>0.5231794581598413</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03096839876953822</v>
+        <v>0.03100706602780706</v>
       </c>
     </row>
     <row r="7">
@@ -913,10 +913,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.312981000054467</v>
+        <v>4.301795009238987</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07268430237584672</v>
+        <v>0.07274600196334646</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -924,19 +924,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.781852100444339</v>
+        <v>5.772290667276149</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06941803030967711</v>
+        <v>0.06942960238456725</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5322809470734482</v>
+        <v>0.5251907158345596</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4677190529265518</v>
+        <v>0.4748092841654404</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07115660469845742</v>
+        <v>0.07117134465333974</v>
       </c>
       <c r="L7" t="n">
         <v>5</v>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.985327017078611</v>
+        <v>1.971865971247252</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03428181023597719</v>
+        <v>0.03441546931266786</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -958,19 +958,19 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>5.859715978135454</v>
+        <v>5.848421132426982</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02790983576774597</v>
+        <v>0.02790068125724793</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2218971783103944</v>
+        <v>0.2188595536891025</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7781028216896055</v>
+        <v>0.7811404463108975</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02932375892251235</v>
+        <v>0.02932650486343623</v>
       </c>
     </row>
     <row r="8">
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5.781852100444339</v>
+        <v>5.772290667276149</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06941803030967711</v>
+        <v>0.06942960238456725</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -997,19 +997,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>12.03462185346688</v>
+        <v>12.02875858850701</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06339623198509217</v>
+        <v>0.06340622458457945</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9651117971439441</v>
+        <v>0.9636041716203585</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03488820285605587</v>
+        <v>0.0363958283796415</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06920794058817073</v>
+        <v>0.06921037655989315</v>
       </c>
       <c r="L8" t="n">
         <v>6</v>
@@ -1020,10 +1020,10 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>5.859715978135454</v>
+        <v>5.848421132426982</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02790983576774597</v>
+        <v>0.02790068125724793</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1031,19 +1031,19 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>8.105206562301365</v>
+        <v>8.094757729915601</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02653388705253602</v>
+        <v>0.02652879405021668</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9375263370713912</v>
+        <v>0.9325217477458716</v>
       </c>
       <c r="T8" t="n">
-        <v>0.06247366292860879</v>
+        <v>0.0674782522541284</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02782387521150489</v>
+        <v>0.02780810870622766</v>
       </c>
     </row>
     <row r="9">
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5.781852100444339</v>
+        <v>5.772290667276149</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06941803030967711</v>
+        <v>0.06942960238456725</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1070,19 +1070,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>12.03462185346688</v>
+        <v>12.02875858850701</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06339623198509217</v>
+        <v>0.06340622458457945</v>
       </c>
       <c r="I9" t="n">
-        <v>0.805182671412646</v>
+        <v>0.8037695792289271</v>
       </c>
       <c r="J9" t="n">
-        <v>0.194817328587354</v>
+        <v>0.1962304207710729</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06824487964678966</v>
+        <v>0.06824763242441251</v>
       </c>
       <c r="L9" t="n">
         <v>7</v>
@@ -1093,10 +1093,10 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>5.859715978135454</v>
+        <v>5.848421132426982</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02790983576774597</v>
+        <v>0.02790068125724793</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1104,19 +1104,19 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>8.105206562301365</v>
+        <v>8.094757729915601</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02653388705253602</v>
+        <v>0.02652879405021668</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4921893550098741</v>
+        <v>0.4873524881086517</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5078106449901258</v>
+        <v>0.5126475118913483</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02721111436320187</v>
+        <v>0.02719738669396779</v>
       </c>
     </row>
     <row r="10">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5.781852100444339</v>
+        <v>5.772290667276149</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06941803030967711</v>
+        <v>0.06942960238456725</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1143,19 +1143,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>12.03462185346688</v>
+        <v>12.02875858850701</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06339623198509217</v>
+        <v>0.06340622458457945</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6452535456813479</v>
+        <v>0.6439349868374958</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3547464543186521</v>
+        <v>0.3560650131625042</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0672818187054086</v>
+        <v>0.06728488828893185</v>
       </c>
       <c r="L10" t="n">
         <v>8</v>
@@ -1166,10 +1166,10 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>5.859715978135454</v>
+        <v>5.848421132426982</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02790983576774597</v>
+        <v>0.02790068125724793</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1177,19 +1177,19 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>8.105206562301365</v>
+        <v>8.094757729915601</v>
       </c>
       <c r="R10" t="n">
-        <v>0.02653388705253602</v>
+        <v>0.02652879405021668</v>
       </c>
       <c r="S10" t="n">
-        <v>0.04685237294835704</v>
+        <v>0.04218322847143186</v>
       </c>
       <c r="T10" t="n">
-        <v>0.953147627051643</v>
+        <v>0.9578167715285681</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02659835351489885</v>
+        <v>0.02658666468170791</v>
       </c>
     </row>
     <row r="11">
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5.781852100444339</v>
+        <v>5.772290667276149</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06941803030967711</v>
+        <v>0.06942960238456725</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1216,19 +1216,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>12.03462185346688</v>
+        <v>12.02875858850701</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06339623198509217</v>
+        <v>0.06340622458457945</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4853244199500497</v>
+        <v>0.4841003944460645</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5146755800499503</v>
+        <v>0.5158996055539355</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06631875776402754</v>
+        <v>0.06632214415345122</v>
       </c>
       <c r="L11" t="n">
         <v>9</v>
@@ -1239,10 +1239,10 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>8.105206562301365</v>
+        <v>8.094757729915601</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02653388705253602</v>
+        <v>0.02652879405021668</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1250,19 +1250,19 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>12.09605389943518</v>
+        <v>12.08407415448768</v>
       </c>
       <c r="R11" t="n">
-        <v>0.02399273676872254</v>
+        <v>0.02400679087638855</v>
       </c>
       <c r="S11" t="n">
-        <v>0.7757886077543457</v>
+        <v>0.7730833622250203</v>
       </c>
       <c r="T11" t="n">
-        <v>0.2242113922456543</v>
+        <v>0.2269166377749797</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02596413220949676</v>
+        <v>0.02595650956955377</v>
       </c>
     </row>
     <row r="12">
@@ -1278,10 +1278,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5.781852100444339</v>
+        <v>5.772290667276149</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06941803030967711</v>
+        <v>0.06942960238456725</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1289,19 +1289,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>12.03462185346688</v>
+        <v>12.02875858850701</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06339623198509217</v>
+        <v>0.06340622458457945</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3253952942187516</v>
+        <v>0.3242658020546332</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6746047057812484</v>
+        <v>0.6757341979453668</v>
       </c>
       <c r="K12" t="n">
-        <v>0.06535569682264647</v>
+        <v>0.06535940001797057</v>
       </c>
       <c r="L12" t="n">
         <v>10</v>
@@ -1312,10 +1312,10 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>8.105206562301365</v>
+        <v>8.094757729915601</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02653388705253602</v>
+        <v>0.02652879405021668</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1323,19 +1323,19 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>12.09605389943518</v>
+        <v>12.08407415448768</v>
       </c>
       <c r="R12" t="n">
-        <v>0.02399273676872254</v>
+        <v>0.02400679087638855</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5252152543977148</v>
+        <v>0.5224138505661984</v>
       </c>
       <c r="T12" t="n">
-        <v>0.4747847456022852</v>
+        <v>0.4775861494338016</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02532738766149846</v>
+        <v>0.02532432026556828</v>
       </c>
     </row>
     <row r="13">
@@ -1351,10 +1351,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5.781852100444339</v>
+        <v>5.772290667276149</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06941803030967711</v>
+        <v>0.06942960238456725</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1362,19 +1362,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>12.03462185346688</v>
+        <v>12.02875858850701</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06339623198509217</v>
+        <v>0.06340622458457945</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1654661684874535</v>
+        <v>0.1644312096632019</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8345338315125466</v>
+        <v>0.8355687903367981</v>
       </c>
       <c r="K13" t="n">
-        <v>0.06439263588126541</v>
+        <v>0.06439665588248993</v>
       </c>
       <c r="L13" t="n">
         <v>11</v>
@@ -1385,10 +1385,10 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>8.105206562301365</v>
+        <v>8.094757729915601</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02653388705253602</v>
+        <v>0.02652879405021668</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1396,19 +1396,19 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>12.09605389943518</v>
+        <v>12.08407415448768</v>
       </c>
       <c r="R13" t="n">
-        <v>0.02399273676872254</v>
+        <v>0.02400679087638855</v>
       </c>
       <c r="S13" t="n">
-        <v>0.274641901041084</v>
+        <v>0.2717443389073764</v>
       </c>
       <c r="T13" t="n">
-        <v>0.725358098958916</v>
+        <v>0.7282556610926236</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02469064311350016</v>
+        <v>0.02469213096158278</v>
       </c>
     </row>
     <row r="14">
@@ -1424,10 +1424,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5.781852100444339</v>
+        <v>5.772290667276149</v>
       </c>
       <c r="E14" t="n">
-        <v>0.06941803030967711</v>
+        <v>0.06942960238456725</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1435,19 +1435,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>12.03462185346688</v>
+        <v>12.02875858850701</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06339623198509217</v>
+        <v>0.06340622458457945</v>
       </c>
       <c r="I14" t="n">
-        <v>0.005537042756155349</v>
+        <v>0.004596617271770573</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9944629572438447</v>
+        <v>0.9954033827282295</v>
       </c>
       <c r="K14" t="n">
-        <v>0.06342957493988434</v>
+        <v>0.06343391174700928</v>
       </c>
       <c r="L14" t="n">
         <v>12</v>
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>8.105206562301365</v>
+        <v>8.094757729915601</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02653388705253602</v>
+        <v>0.02652879405021668</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1469,19 +1469,19 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>12.09605389943518</v>
+        <v>12.08407415448768</v>
       </c>
       <c r="R14" t="n">
-        <v>0.02399273676872254</v>
+        <v>0.02400679087638855</v>
       </c>
       <c r="S14" t="n">
-        <v>0.02406854768445321</v>
+        <v>0.02107482724855437</v>
       </c>
       <c r="T14" t="n">
-        <v>0.9759314523155468</v>
+        <v>0.9789251727514456</v>
       </c>
       <c r="U14" t="n">
-        <v>0.02405389856550186</v>
+        <v>0.02405994165759728</v>
       </c>
     </row>
     <row r="15">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12.03462185346688</v>
+        <v>12.02875858850701</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06339623198509217</v>
+        <v>0.06340622458457945</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1508,10 +1508,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>12.03462185346688</v>
+        <v>12.02875858850701</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06339623198509217</v>
+        <v>0.06340622458457945</v>
       </c>
       <c r="I15" t="n">
         <v>0.5</v>
@@ -1520,7 +1520,7 @@
         <v>0.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.06339623198509217</v>
+        <v>0.06340622458457945</v>
       </c>
       <c r="L15" t="n">
         <v>13</v>
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>12.09605389943518</v>
+        <v>12.08407415448768</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02399273676872254</v>
+        <v>0.02400679087638855</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1542,10 +1542,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>12.09605389943518</v>
+        <v>12.08407415448768</v>
       </c>
       <c r="R15" t="n">
-        <v>0.02399273676872254</v>
+        <v>0.02400679087638855</v>
       </c>
       <c r="S15" t="n">
         <v>0.5</v>
@@ -1554,7 +1554,7 @@
         <v>0.5</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02399273676872254</v>
+        <v>0.02400679087638855</v>
       </c>
     </row>
     <row r="16">
@@ -1562,7 +1562,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1612021857923497</v>
+        <v>0.1475409836065573</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.1612021857923497</v>
+        <v>0.1475409836065573</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1428477671177549</v>
+        <v>0.1543997831609249</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.1612021857923497</v>
+        <v>0.1475409836065573</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1428477671177549</v>
+        <v>0.1543997831609249</v>
       </c>
       <c r="I16" t="n">
         <v>0.5</v>
@@ -1593,10 +1593,10 @@
         <v>0.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1428477671177549</v>
+        <v>0.1543997831609249</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1612021857923497</v>
+        <v>0.1475409836065573</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>1.985327017078611</v>
+        <v>1.971865971247252</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02399273676872254</v>
+        <v>0.02400679087638855</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1615,10 +1615,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>1.985327017078611</v>
+        <v>1.971865971247252</v>
       </c>
       <c r="R16" t="n">
-        <v>0.03428181023597719</v>
+        <v>0.03441546931266786</v>
       </c>
       <c r="S16" t="n">
         <v>0.5</v>
@@ -1627,7 +1627,7 @@
         <v>0.5</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02913727350234986</v>
+        <v>0.02921113009452821</v>
       </c>
     </row>
     <row r="17">
@@ -1635,7 +1635,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.293023423183876</v>
+        <v>1.280408293124317</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1643,10 +1643,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.293023423183876</v>
+        <v>1.280408293124317</v>
       </c>
       <c r="E17" t="n">
-        <v>0.09029759715795516</v>
+        <v>0.09038692696809766</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1654,10 +1654,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.293023423183876</v>
+        <v>1.280408293124317</v>
       </c>
       <c r="H17" t="n">
-        <v>0.09029759715795516</v>
+        <v>0.09038692696809766</v>
       </c>
       <c r="I17" t="n">
         <v>0.5</v>
@@ -1666,10 +1666,10 @@
         <v>0.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.09029759715795516</v>
+        <v>0.09038692696809766</v>
       </c>
       <c r="L17" t="n">
-        <v>1.293023423183876</v>
+        <v>1.280408293124317</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1677,10 +1677,10 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>1.985327017078611</v>
+        <v>1.971865971247252</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02399273676872254</v>
+        <v>0.02400679087638855</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -1688,10 +1688,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>1.985327017078611</v>
+        <v>1.971865971247252</v>
       </c>
       <c r="R17" t="n">
-        <v>0.03428181023597719</v>
+        <v>0.03441546931266786</v>
       </c>
       <c r="S17" t="n">
         <v>0.5</v>
@@ -1700,7 +1700,7 @@
         <v>0.5</v>
       </c>
       <c r="U17" t="n">
-        <v>0.02913727350234986</v>
+        <v>0.02921113009452821</v>
       </c>
     </row>
     <row r="18">
@@ -1708,7 +1708,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.512120153148858</v>
+        <v>2.500118460054325</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1716,10 +1716,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.512120153148858</v>
+        <v>2.500118460054325</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08056476862802769</v>
+        <v>0.08063188539030453</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1727,10 +1727,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.512120153148858</v>
+        <v>2.500118460054325</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08056476862802769</v>
+        <v>0.08063188539030453</v>
       </c>
       <c r="I18" t="n">
         <v>0.5</v>
@@ -1739,10 +1739,10 @@
         <v>0.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.08056476862802769</v>
+        <v>0.08063188539030453</v>
       </c>
       <c r="L18" t="n">
-        <v>2.512120153148858</v>
+        <v>2.500118460054325</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1750,10 +1750,10 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>1.985327017078611</v>
+        <v>1.971865971247252</v>
       </c>
       <c r="O18" t="n">
-        <v>0.03428181023597719</v>
+        <v>0.03441546931266786</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -1761,19 +1761,19 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>5.859715978135454</v>
+        <v>5.848421132426982</v>
       </c>
       <c r="R18" t="n">
-        <v>0.02790983576774597</v>
+        <v>0.02790068125724793</v>
       </c>
       <c r="S18" t="n">
-        <v>0.864031943781259</v>
+        <v>0.8637314659940729</v>
       </c>
       <c r="T18" t="n">
-        <v>0.135968056218741</v>
+        <v>0.1362685340059271</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03341542525325635</v>
+        <v>0.03352770869499647</v>
       </c>
     </row>
     <row r="19">
@@ -1781,7 +1781,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.312981000054467</v>
+        <v>4.301795009238987</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1789,10 +1789,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4.312981000054467</v>
+        <v>4.301795009238987</v>
       </c>
       <c r="E19" t="n">
-        <v>0.07268430237584672</v>
+        <v>0.07274600196334646</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1800,10 +1800,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.312981000054467</v>
+        <v>4.301795009238987</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07268430237584672</v>
+        <v>0.07274600196334646</v>
       </c>
       <c r="I19" t="n">
         <v>0.5</v>
@@ -1812,10 +1812,10 @@
         <v>0.5</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07268430237584672</v>
+        <v>0.07274600196334646</v>
       </c>
       <c r="L19" t="n">
-        <v>4.312981000054467</v>
+        <v>4.301795009238987</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>1.985327017078611</v>
+        <v>1.971865971247252</v>
       </c>
       <c r="O19" t="n">
-        <v>0.03428181023597719</v>
+        <v>0.03441546931266786</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
@@ -1834,19 +1834,19 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>5.859715978135454</v>
+        <v>5.848421132426982</v>
       </c>
       <c r="R19" t="n">
-        <v>0.02790983576774597</v>
+        <v>0.02790068125724793</v>
       </c>
       <c r="S19" t="n">
-        <v>0.3992203657474477</v>
+        <v>0.3989692030378125</v>
       </c>
       <c r="T19" t="n">
-        <v>0.6007796342525522</v>
+        <v>0.6010307969621875</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03045365774548663</v>
+        <v>0.03049988105567908</v>
       </c>
     </row>
     <row r="20">
@@ -1854,7 +1854,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.781852100444339</v>
+        <v>5.772290667276149</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1862,10 +1862,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5.781852100444339</v>
+        <v>5.772290667276149</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06941803030967711</v>
+        <v>0.06942960238456725</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1873,10 +1873,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.781852100444339</v>
+        <v>5.772290667276149</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06941803030967711</v>
+        <v>0.06942960238456725</v>
       </c>
       <c r="I20" t="n">
         <v>0.5</v>
@@ -1885,10 +1885,10 @@
         <v>0.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.06941803030967711</v>
+        <v>0.06942960238456725</v>
       </c>
       <c r="L20" t="n">
-        <v>5.781852100444339</v>
+        <v>5.772290667276149</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>1.985327017078611</v>
+        <v>1.971865971247252</v>
       </c>
       <c r="O20" t="n">
-        <v>0.03428181023597719</v>
+        <v>0.03441546931266786</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -1907,19 +1907,19 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>5.859715978135454</v>
+        <v>5.848421132426982</v>
       </c>
       <c r="R20" t="n">
-        <v>0.02790983576774597</v>
+        <v>0.02790068125724793</v>
       </c>
       <c r="S20" t="n">
-        <v>0.02009707297686386</v>
+        <v>0.01963869001870854</v>
       </c>
       <c r="T20" t="n">
-        <v>0.9799029270231361</v>
+        <v>0.9803613099812915</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02803789380364072</v>
+        <v>0.0280286231604059</v>
       </c>
     </row>
     <row r="21">
@@ -1927,7 +1927,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.03462185346688</v>
+        <v>12.02875858850701</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1935,10 +1935,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>12.03462185346688</v>
+        <v>12.02875858850701</v>
       </c>
       <c r="E21" t="n">
-        <v>0.06339623198509217</v>
+        <v>0.06340622458457945</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>12.03462185346688</v>
+        <v>12.02875858850701</v>
       </c>
       <c r="H21" t="n">
-        <v>0.06339623198509217</v>
+        <v>0.06340622458457945</v>
       </c>
       <c r="I21" t="n">
         <v>0.5</v>
@@ -1958,10 +1958,10 @@
         <v>0.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.06339623198509217</v>
+        <v>0.06340622458457945</v>
       </c>
       <c r="L21" t="n">
-        <v>12.03462185346688</v>
+        <v>12.02875858850701</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>8.105206562301365</v>
+        <v>8.094757729915601</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02653388705253602</v>
+        <v>0.02652879405021668</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -1980,19 +1980,19 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>12.09605389943518</v>
+        <v>12.08407415448768</v>
       </c>
       <c r="R21" t="n">
-        <v>0.02399273676872254</v>
+        <v>0.02400679087638855</v>
       </c>
       <c r="S21" t="n">
-        <v>0.01539323376183501</v>
+        <v>0.01386592591150559</v>
       </c>
       <c r="T21" t="n">
-        <v>0.984606766238165</v>
+        <v>0.9861340740884944</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02403185328906523</v>
+        <v>0.02404176078554543</v>
       </c>
     </row>
   </sheetData>
